--- a/imdb-job_query_split.xlsx
+++ b/imdb-job_query_split.xlsx
@@ -455,10 +455,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>645.520396</v>
+        <v>138215.905248</v>
       </c>
       <c r="D2" t="n">
-        <v>102.570061</v>
+        <v>11679.123354</v>
       </c>
     </row>
     <row r="3">
@@ -473,10 +473,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>856.815183</v>
+        <v>358981.805272</v>
       </c>
       <c r="D3" t="n">
-        <v>119.463127</v>
+        <v>4107.870376</v>
       </c>
     </row>
     <row r="4">
@@ -491,10 +491,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1167.891107</v>
+        <v>832124.976013</v>
       </c>
       <c r="D4" t="n">
-        <v>30.522695</v>
+        <v>8189.494401</v>
       </c>
     </row>
     <row r="5">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1362.068668</v>
+        <v>33001.78514</v>
       </c>
       <c r="D5" t="n">
-        <v>32.134406</v>
+        <v>11643.868275</v>
       </c>
     </row>
     <row r="6">
@@ -527,10 +527,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1314.982169</v>
+        <v>23398.971736</v>
       </c>
       <c r="D6" t="n">
-        <v>6.616685</v>
+        <v>107.747521</v>
       </c>
     </row>
     <row r="7">
@@ -545,10 +545,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1358.568231</v>
+        <v>296175.905537</v>
       </c>
       <c r="D7" t="n">
-        <v>23.354234</v>
+        <v>245.91584</v>
       </c>
     </row>
     <row r="8">
@@ -563,10 +563,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1310.034646</v>
+        <v>261719.072614</v>
       </c>
       <c r="D8" t="n">
-        <v>26.212676</v>
+        <v>2897.846709</v>
       </c>
     </row>
     <row r="9">
@@ -581,10 +581,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1347.397634</v>
+        <v>110363.157011</v>
       </c>
       <c r="D9" t="n">
-        <v>38.430579</v>
+        <v>6135.75079</v>
       </c>
     </row>
     <row r="10">
@@ -599,10 +599,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1211.001921</v>
+        <v>106117.18135</v>
       </c>
       <c r="D10" t="n">
-        <v>14.901779</v>
+        <v>123.897571</v>
       </c>
     </row>
     <row r="11">
@@ -617,10 +617,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1338.248179</v>
+        <v>698500.18301</v>
       </c>
       <c r="D11" t="n">
-        <v>15.604932</v>
+        <v>1671.674527</v>
       </c>
     </row>
     <row r="12">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1203.191334</v>
+        <v>802356.217833</v>
       </c>
       <c r="D12" t="n">
-        <v>19.952191</v>
+        <v>11462.778125</v>
       </c>
     </row>
     <row r="13">
@@ -653,10 +653,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1321.909028</v>
+        <v>727271.385355</v>
       </c>
       <c r="D13" t="n">
-        <v>12.874091</v>
+        <v>7520.569787</v>
       </c>
     </row>
     <row r="14">
@@ -671,10 +671,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1317.724662</v>
+        <v>654400.2378990001</v>
       </c>
       <c r="D14" t="n">
-        <v>17.530591</v>
+        <v>2514.298368</v>
       </c>
     </row>
     <row r="15">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1200.987896</v>
+        <v>634557.901634</v>
       </c>
       <c r="D15" t="n">
-        <v>14.553247</v>
+        <v>8943.954671</v>
       </c>
     </row>
     <row r="16">
@@ -707,10 +707,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1324.488243</v>
+        <v>271055.324611</v>
       </c>
       <c r="D16" t="n">
-        <v>11.633991</v>
+        <v>3416.350634</v>
       </c>
     </row>
     <row r="17">
@@ -725,10 +725,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1353.602754</v>
+        <v>130241.954397</v>
       </c>
       <c r="D17" t="n">
-        <v>21.719151</v>
+        <v>2686.204919</v>
       </c>
     </row>
     <row r="18">
@@ -743,10 +743,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1326.059828</v>
+        <v>22622.39341</v>
       </c>
       <c r="D18" t="n">
-        <v>6.975341</v>
+        <v>2218.976026</v>
       </c>
     </row>
     <row r="19">
@@ -761,10 +761,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1277.964931</v>
+        <v>177273.990111</v>
       </c>
       <c r="D19" t="n">
-        <v>28.647956</v>
+        <v>6302.539151</v>
       </c>
     </row>
     <row r="20">
@@ -779,10 +779,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1297.409625</v>
+        <v>8239.287741</v>
       </c>
       <c r="D20" t="n">
-        <v>18.568418</v>
+        <v>1829.68116</v>
       </c>
     </row>
     <row r="21">
@@ -797,10 +797,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1267.054501</v>
+        <v>195531.583943</v>
       </c>
       <c r="D21" t="n">
-        <v>2.934869</v>
+        <v>1382.112302</v>
       </c>
     </row>
     <row r="22">
@@ -815,10 +815,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1252.171287</v>
+        <v>235627.172904</v>
       </c>
       <c r="D22" t="n">
-        <v>15.927667</v>
+        <v>4467.386946</v>
       </c>
     </row>
     <row r="23">
@@ -833,10 +833,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1212.270131</v>
+        <v>173715.804084</v>
       </c>
       <c r="D23" t="n">
-        <v>8.288957</v>
+        <v>1036.630132</v>
       </c>
     </row>
     <row r="24">
@@ -851,10 +851,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1186.341163</v>
+        <v>589212.150221</v>
       </c>
       <c r="D24" t="n">
-        <v>57.517963</v>
+        <v>117884.754714</v>
       </c>
     </row>
     <row r="25">
@@ -869,10 +869,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2049.618442</v>
+        <v>744811.4751940001</v>
       </c>
       <c r="D25" t="n">
-        <v>136.976085</v>
+        <v>431.736484</v>
       </c>
     </row>
     <row r="26">
@@ -887,10 +887,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2116.586032</v>
+        <v>217542.557753</v>
       </c>
       <c r="D26" t="n">
-        <v>27.141335</v>
+        <v>990.032079</v>
       </c>
     </row>
     <row r="27">
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2010.660119</v>
+        <v>6400.55674</v>
       </c>
       <c r="D27" t="n">
-        <v>14.948558</v>
+        <v>588.639879</v>
       </c>
     </row>
     <row r="28">
@@ -923,10 +923,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1993.807365</v>
+        <v>5744.454486</v>
       </c>
       <c r="D28" t="n">
-        <v>49.794082</v>
+        <v>44.586179</v>
       </c>
     </row>
     <row r="29">
@@ -941,10 +941,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1996.022782</v>
+        <v>5746.140238</v>
       </c>
       <c r="D29" t="n">
-        <v>34.961145</v>
+        <v>43.191027</v>
       </c>
     </row>
     <row r="30">
@@ -959,10 +959,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1968.572441</v>
+        <v>5772.493412</v>
       </c>
       <c r="D30" t="n">
-        <v>25.922597</v>
+        <v>64.152821</v>
       </c>
     </row>
     <row r="31">
@@ -977,10 +977,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1937.825482</v>
+        <v>5909.406092</v>
       </c>
       <c r="D31" t="n">
-        <v>16.818324</v>
+        <v>83.855784</v>
       </c>
     </row>
     <row r="32">
@@ -995,10 +995,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1963.383639</v>
+        <v>5776.598859</v>
       </c>
       <c r="D32" t="n">
-        <v>19.640471</v>
+        <v>51.240771</v>
       </c>
     </row>
     <row r="33">
@@ -1013,10 +1013,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2132.670975</v>
+        <v>925740.4979280001</v>
       </c>
       <c r="D33" t="n">
-        <v>29.67018</v>
+        <v>1820.979549</v>
       </c>
     </row>
     <row r="34">
@@ -1031,10 +1031,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2323.776381</v>
+        <v>650962.6988</v>
       </c>
       <c r="D34" t="n">
-        <v>18.136352</v>
+        <v>2646.792407</v>
       </c>
     </row>
     <row r="35">
@@ -1049,10 +1049,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2094.395506</v>
+        <v>783585.8993629999</v>
       </c>
       <c r="D35" t="n">
-        <v>25.546186</v>
+        <v>17715.142192</v>
       </c>
     </row>
     <row r="36">
@@ -1067,10 +1067,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2491.718978</v>
+        <v>15963.142986</v>
       </c>
       <c r="D36" t="n">
-        <v>33.169576</v>
+        <v>102116.023315</v>
       </c>
     </row>
     <row r="37">
@@ -1085,10 +1085,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2398.329182</v>
+        <v>225933.701763</v>
       </c>
       <c r="D37" t="n">
-        <v>31.4707</v>
+        <v>3193.264874</v>
       </c>
     </row>
     <row r="38">
@@ -1103,10 +1103,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2438.903421</v>
+        <v>27092.158517</v>
       </c>
       <c r="D38" t="n">
-        <v>22.337951</v>
+        <v>528296.790078</v>
       </c>
     </row>
     <row r="39">
@@ -1121,10 +1121,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2347.673765</v>
+        <v>4184.588506</v>
       </c>
       <c r="D39" t="n">
-        <v>15.806073</v>
+        <v>46.583313</v>
       </c>
     </row>
     <row r="40">
@@ -1139,10 +1139,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1961.077766</v>
+        <v>576365.987622</v>
       </c>
       <c r="D40" t="n">
-        <v>31.725108</v>
+        <v>10863.607551</v>
       </c>
     </row>
     <row r="41">
@@ -1157,10 +1157,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1995.498449</v>
+        <v>104508.443358</v>
       </c>
       <c r="D41" t="n">
-        <v>18.663944</v>
+        <v>371.355605</v>
       </c>
     </row>
     <row r="42">
@@ -1175,10 +1175,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2024.393841</v>
+        <v>456666.476623</v>
       </c>
       <c r="D42" t="n">
-        <v>36.294252</v>
+        <v>9276.137043999999</v>
       </c>
     </row>
     <row r="43">
@@ -1193,10 +1193,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2113.782083</v>
+        <v>110433.051344</v>
       </c>
       <c r="D43" t="n">
-        <v>18.285066</v>
+        <v>9617.853241999999</v>
       </c>
     </row>
     <row r="44">
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2534.834585</v>
+        <v>899223.033313</v>
       </c>
       <c r="D44" t="n">
-        <v>40.472048</v>
+        <v>2019.847285</v>
       </c>
     </row>
     <row r="45">
@@ -1229,10 +1229,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2572.195451</v>
+        <v>314784.144635</v>
       </c>
       <c r="D45" t="n">
-        <v>35.805349</v>
+        <v>5743.833616</v>
       </c>
     </row>
     <row r="46">
@@ -1247,10 +1247,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2541.363943</v>
+        <v>828998.520138</v>
       </c>
       <c r="D46" t="n">
-        <v>38.433004</v>
+        <v>3123.049926</v>
       </c>
     </row>
     <row r="47">
@@ -1265,10 +1265,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2786.05485</v>
+        <v>36811.064221</v>
       </c>
       <c r="D47" t="n">
-        <v>30.017766</v>
+        <v>11900.962716</v>
       </c>
     </row>
     <row r="48">
@@ -1283,10 +1283,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2790.598749</v>
+        <v>29772.538353</v>
       </c>
       <c r="D48" t="n">
-        <v>42.48707</v>
+        <v>2763.689365</v>
       </c>
     </row>
     <row r="49">
@@ -1301,10 +1301,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2785.403598</v>
+        <v>31207.368854</v>
       </c>
       <c r="D49" t="n">
-        <v>16.877621</v>
+        <v>96.875567</v>
       </c>
     </row>
     <row r="50">
@@ -1319,10 +1319,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2239.005858</v>
+        <v>544827.943434</v>
       </c>
       <c r="D50" t="n">
-        <v>971.810126</v>
+        <v>5766.916512</v>
       </c>
     </row>
     <row r="51">
@@ -1337,10 +1337,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>764.965491</v>
+        <v>522118.507435</v>
       </c>
       <c r="D51" t="n">
-        <v>21.589955</v>
+        <v>1503.283756</v>
       </c>
     </row>
     <row r="52">
@@ -1355,10 +1355,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>926.186506</v>
+        <v>29154.129176</v>
       </c>
       <c r="D52" t="n">
-        <v>77.130644</v>
+        <v>9886.901631000001</v>
       </c>
     </row>
     <row r="53">
@@ -1373,10 +1373,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1117.028513</v>
+        <v>158688.022582</v>
       </c>
       <c r="D53" t="n">
-        <v>72.37331399999999</v>
+        <v>42532.547912</v>
       </c>
     </row>
     <row r="54">
@@ -1391,10 +1391,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1015.732662</v>
+        <v>149414.750519</v>
       </c>
       <c r="D54" t="n">
-        <v>11.781709</v>
+        <v>4669.045181</v>
       </c>
     </row>
     <row r="55">
@@ -1409,10 +1409,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1053.911385</v>
+        <v>112948.536623</v>
       </c>
       <c r="D55" t="n">
-        <v>22.02096</v>
+        <v>1550.290947</v>
       </c>
     </row>
     <row r="56">
@@ -1427,10 +1427,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1081.589955</v>
+        <v>145593.145049</v>
       </c>
       <c r="D56" t="n">
-        <v>54.076604</v>
+        <v>772.162915</v>
       </c>
     </row>
     <row r="57">
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1282.068122</v>
+        <v>151794.976875</v>
       </c>
       <c r="D57" t="n">
-        <v>19.895853</v>
+        <v>790.719773</v>
       </c>
     </row>
     <row r="58">
@@ -1463,10 +1463,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1293.004948</v>
+        <v>59508.397601</v>
       </c>
       <c r="D58" t="n">
-        <v>18.332648</v>
+        <v>11429.984108</v>
       </c>
     </row>
     <row r="59">
@@ -1481,10 +1481,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1098.236946</v>
+        <v>276748.956802</v>
       </c>
       <c r="D59" t="n">
-        <v>5.748433</v>
+        <v>8106.011849</v>
       </c>
     </row>
     <row r="60">
@@ -1499,10 +1499,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1137.384935</v>
+        <v>316348.240096</v>
       </c>
       <c r="D60" t="n">
-        <v>19.80936</v>
+        <v>7465.189824</v>
       </c>
     </row>
     <row r="61">
@@ -1517,10 +1517,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1114.097686</v>
+        <v>601033.214525</v>
       </c>
       <c r="D61" t="n">
-        <v>15.425155</v>
+        <v>13279.642053</v>
       </c>
     </row>
     <row r="62">
@@ -1535,10 +1535,10 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1313.171949</v>
+        <v>481929.622639</v>
       </c>
       <c r="D62" t="n">
-        <v>9.930546</v>
+        <v>1845.276058</v>
       </c>
     </row>
     <row r="63">
@@ -1553,10 +1553,10 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1294.071369</v>
+        <v>289229.755266</v>
       </c>
       <c r="D63" t="n">
-        <v>15.101083</v>
+        <v>956.606759</v>
       </c>
     </row>
     <row r="64">
@@ -1571,10 +1571,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1222.729333</v>
+        <v>330242.721661</v>
       </c>
       <c r="D64" t="n">
-        <v>14.051547</v>
+        <v>5447.308952</v>
       </c>
     </row>
     <row r="65">
@@ -1589,10 +1589,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1344.682622</v>
+        <v>59216.378539</v>
       </c>
       <c r="D65" t="n">
-        <v>52.347068</v>
+        <v>8347.381632000001</v>
       </c>
     </row>
     <row r="66">
@@ -1607,10 +1607,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1981.568285</v>
+        <v>51796.841348</v>
       </c>
       <c r="D66" t="n">
-        <v>93.38809500000001</v>
+        <v>133.236893</v>
       </c>
     </row>
     <row r="67">
@@ -1625,10 +1625,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2060.638061</v>
+        <v>267290.016365</v>
       </c>
       <c r="D67" t="n">
-        <v>35.183114</v>
+        <v>1536.371156</v>
       </c>
     </row>
     <row r="68">
@@ -1643,10 +1643,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2289.010403</v>
+        <v>280679.667079</v>
       </c>
       <c r="D68" t="n">
-        <v>39.737953</v>
+        <v>8135.052128</v>
       </c>
     </row>
     <row r="69">
@@ -1661,10 +1661,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2286.69446</v>
+        <v>265568.067887</v>
       </c>
       <c r="D69" t="n">
-        <v>20.354818</v>
+        <v>1337.675693</v>
       </c>
     </row>
     <row r="70">
@@ -1679,10 +1679,10 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2297.203184</v>
+        <v>331673.949467</v>
       </c>
       <c r="D70" t="n">
-        <v>23.989699</v>
+        <v>1301.487173</v>
       </c>
     </row>
     <row r="71">
@@ -1697,10 +1697,10 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1240.473639</v>
+        <v>313958.551192</v>
       </c>
       <c r="D71" t="n">
-        <v>753.625423</v>
+        <v>5468.171736</v>
       </c>
     </row>
     <row r="72">
@@ -1715,10 +1715,10 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>818.465635</v>
+        <v>308748.137016</v>
       </c>
       <c r="D72" t="n">
-        <v>15.470147</v>
+        <v>1953.878763</v>
       </c>
     </row>
     <row r="73">
@@ -1733,10 +1733,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>898.030833</v>
+        <v>100484.491042</v>
       </c>
       <c r="D73" t="n">
-        <v>72.06952699999999</v>
+        <v>1836.894896</v>
       </c>
     </row>
     <row r="74">
@@ -1751,10 +1751,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>764.879671</v>
+        <v>448490.819106</v>
       </c>
       <c r="D74" t="n">
-        <v>87.085939</v>
+        <v>852.846935</v>
       </c>
     </row>
     <row r="75">
@@ -1769,10 +1769,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>874.448791</v>
+        <v>432592.360032</v>
       </c>
       <c r="D75" t="n">
-        <v>14.454204</v>
+        <v>7357.877487</v>
       </c>
     </row>
     <row r="76">
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>872.79216</v>
+        <v>207903.185535</v>
       </c>
       <c r="D76" t="n">
-        <v>9.158215999999999</v>
+        <v>8076.57487</v>
       </c>
     </row>
     <row r="77">
@@ -1805,10 +1805,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>878.739254</v>
+        <v>754308.336232</v>
       </c>
       <c r="D77" t="n">
-        <v>11.422837</v>
+        <v>1762.498059</v>
       </c>
     </row>
     <row r="78">
@@ -1823,10 +1823,10 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>1221.267266</v>
+        <v>618231.372838</v>
       </c>
       <c r="D78" t="n">
-        <v>14.137036</v>
+        <v>103234.174889</v>
       </c>
     </row>
     <row r="79">
@@ -1841,10 +1841,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1251.547561</v>
+        <v>242249.260859</v>
       </c>
       <c r="D79" t="n">
-        <v>13.836415</v>
+        <v>5838.138346</v>
       </c>
     </row>
     <row r="80">
@@ -1859,10 +1859,10 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>1212.134599</v>
+        <v>674503.763853</v>
       </c>
       <c r="D80" t="n">
-        <v>10.214504</v>
+        <v>13461.349725</v>
       </c>
     </row>
     <row r="81">
@@ -1877,10 +1877,10 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>1734.348721</v>
+        <v>590241.194851</v>
       </c>
       <c r="D81" t="n">
-        <v>177.37375</v>
+        <v>3063.370551</v>
       </c>
     </row>
     <row r="82">
@@ -1895,10 +1895,10 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>1945.187287</v>
+        <v>180064.863492</v>
       </c>
       <c r="D82" t="n">
-        <v>28.209501</v>
+        <v>6249.8235</v>
       </c>
     </row>
     <row r="83">
@@ -1913,10 +1913,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1869.896676</v>
+        <v>666255.223612</v>
       </c>
       <c r="D83" t="n">
-        <v>16.617036</v>
+        <v>5386.686787</v>
       </c>
     </row>
     <row r="84">
@@ -1931,10 +1931,10 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>1397.728902</v>
+        <v>801.116974</v>
       </c>
       <c r="D84" t="n">
-        <v>19.239458</v>
+        <v>199.137292</v>
       </c>
     </row>
     <row r="85">
@@ -1949,10 +1949,10 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>1390.581688</v>
+        <v>678.71507</v>
       </c>
       <c r="D85" t="n">
-        <v>30.880949</v>
+        <v>24.520375</v>
       </c>
     </row>
     <row r="86">
@@ -1967,10 +1967,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1942.770444</v>
+        <v>1027.638657</v>
       </c>
       <c r="D86" t="n">
-        <v>33.081337</v>
+        <v>64.555499</v>
       </c>
     </row>
     <row r="87">
@@ -1985,10 +1985,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>1854.185586</v>
+        <v>939.876775</v>
       </c>
       <c r="D87" t="n">
-        <v>14.929819</v>
+        <v>23.14174</v>
       </c>
     </row>
     <row r="88">
@@ -2003,10 +2003,10 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>1864.866606</v>
+        <v>1044.097594</v>
       </c>
       <c r="D88" t="n">
-        <v>400.418693</v>
+        <v>10.813604</v>
       </c>
     </row>
     <row r="89">
@@ -2021,10 +2021,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>517.722165</v>
+        <v>142089.660665</v>
       </c>
       <c r="D89" t="n">
-        <v>3.04107</v>
+        <v>4698.192905</v>
       </c>
     </row>
     <row r="90">
@@ -2039,10 +2039,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>527.49029</v>
+        <v>95660.445226</v>
       </c>
       <c r="D90" t="n">
-        <v>31.555463</v>
+        <v>4393.758444</v>
       </c>
     </row>
     <row r="91">
@@ -2057,10 +2057,10 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>589.904886</v>
+        <v>663897.409339</v>
       </c>
       <c r="D91" t="n">
-        <v>5.591534</v>
+        <v>12226.61914</v>
       </c>
     </row>
     <row r="92">
@@ -2075,10 +2075,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>655.490105</v>
+        <v>84802.606562</v>
       </c>
       <c r="D92" t="n">
-        <v>21.431875</v>
+        <v>2296.645397</v>
       </c>
     </row>
     <row r="93">
@@ -2093,10 +2093,10 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>689.994678</v>
+        <v>168943.518594</v>
       </c>
       <c r="D93" t="n">
-        <v>4.414958</v>
+        <v>1056.061752</v>
       </c>
     </row>
     <row r="94">
@@ -2111,10 +2111,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>686.5234359999999</v>
+        <v>346523.875275</v>
       </c>
       <c r="D94" t="n">
-        <v>13.814779</v>
+        <v>8286.461332000001</v>
       </c>
     </row>
     <row r="95">
@@ -2129,10 +2129,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>678.620141</v>
+        <v>260645.600946</v>
       </c>
       <c r="D95" t="n">
-        <v>23.911185</v>
+        <v>334.282375</v>
       </c>
     </row>
     <row r="96">
@@ -2147,10 +2147,10 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>783.278375</v>
+        <v>252336.174535</v>
       </c>
       <c r="D96" t="n">
-        <v>9.924682000000001</v>
+        <v>9529.063571999999</v>
       </c>
     </row>
     <row r="97">
@@ -2165,10 +2165,10 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>806.823535</v>
+        <v>305079.896797</v>
       </c>
       <c r="D97" t="n">
-        <v>4.11721</v>
+        <v>1222.951159</v>
       </c>
     </row>
     <row r="98">
@@ -2183,10 +2183,10 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>759.042761</v>
+        <v>19677.961258</v>
       </c>
       <c r="D98" t="n">
-        <v>12.838489</v>
+        <v>4208.644511</v>
       </c>
     </row>
     <row r="99">
@@ -2201,10 +2201,10 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>787.472079</v>
+        <v>193901.982165</v>
       </c>
       <c r="D99" t="n">
-        <v>12.574332</v>
+        <v>3810.038076</v>
       </c>
     </row>
     <row r="100">
@@ -2219,10 +2219,10 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>762.3145919999999</v>
+        <v>12405.824206</v>
       </c>
       <c r="D100" t="n">
-        <v>8.019581000000001</v>
+        <v>865.035892</v>
       </c>
     </row>
     <row r="101">
@@ -2237,10 +2237,10 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>785.958805</v>
+        <v>596585.609556</v>
       </c>
       <c r="D101" t="n">
-        <v>20.201823</v>
+        <v>1703.218723</v>
       </c>
     </row>
     <row r="102">
@@ -2255,10 +2255,10 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>770.593795</v>
+        <v>19859.933446</v>
       </c>
       <c r="D102" t="n">
-        <v>15.424396</v>
+        <v>4376.742522</v>
       </c>
     </row>
     <row r="103">
@@ -2273,10 +2273,10 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>760.731441</v>
+        <v>681453.926694</v>
       </c>
       <c r="D103" t="n">
-        <v>14.528122</v>
+        <v>19720.562768</v>
       </c>
     </row>
     <row r="104">
@@ -2291,10 +2291,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>993.449206</v>
+        <v>344730.237171</v>
       </c>
       <c r="D104" t="n">
-        <v>16.839623</v>
+        <v>18570.369227</v>
       </c>
     </row>
     <row r="105">
@@ -2309,10 +2309,10 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>866.47897</v>
+        <v>218491.70761</v>
       </c>
       <c r="D105" t="n">
-        <v>9.72559</v>
+        <v>720.4949319999999</v>
       </c>
     </row>
     <row r="106">
@@ -2327,10 +2327,10 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>1030.289027</v>
+        <v>797033.177643</v>
       </c>
       <c r="D106" t="n">
-        <v>9.273338000000001</v>
+        <v>108860.932964</v>
       </c>
     </row>
     <row r="107">
@@ -2345,10 +2345,10 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>899.165287</v>
+        <v>373999.920849</v>
       </c>
       <c r="D107" t="n">
-        <v>39.779769</v>
+        <v>7831.918878</v>
       </c>
     </row>
     <row r="108">
@@ -2363,10 +2363,10 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>963.231699</v>
+        <v>281428.240926</v>
       </c>
       <c r="D108" t="n">
-        <v>9.531162</v>
+        <v>12036.144381</v>
       </c>
     </row>
     <row r="109">
@@ -2381,10 +2381,10 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>881.840437</v>
+        <v>21423.313625</v>
       </c>
       <c r="D109" t="n">
-        <v>34.774452</v>
+        <v>548541.575219</v>
       </c>
     </row>
     <row r="110">
@@ -2399,10 +2399,10 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>988.32501</v>
+        <v>15632.799348</v>
       </c>
       <c r="D110" t="n">
-        <v>52.658648</v>
+        <v>203637.520682</v>
       </c>
     </row>
     <row r="111">
@@ -2417,10 +2417,10 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>1729.59037</v>
+        <v>481829.56783</v>
       </c>
       <c r="D111" t="n">
-        <v>81.98946599999999</v>
+        <v>12896.982666</v>
       </c>
     </row>
     <row r="112">
@@ -2435,10 +2435,10 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>1710.066672</v>
+        <v>462028.512239</v>
       </c>
       <c r="D112" t="n">
-        <v>25.61721</v>
+        <v>641.892416</v>
       </c>
     </row>
     <row r="113">
@@ -2453,10 +2453,10 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>1706.418852</v>
+        <v>393769.337695</v>
       </c>
       <c r="D113" t="n">
-        <v>17.687774</v>
+        <v>13673.953026</v>
       </c>
     </row>
     <row r="114">
@@ -2471,10 +2471,10 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>1666.506669</v>
+        <v>484027.43737</v>
       </c>
       <c r="D114" t="n">
-        <v>20.920319</v>
+        <v>26211.027308</v>
       </c>
     </row>
   </sheetData>
